--- a/DataCW3M/Reservoirs/DataSources/BLUsourceData.xlsx
+++ b/DataCW3M/Reservoirs/DataSources/BLUsourceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\Reservoirs\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65E4BF-674A-41F4-B3FF-3EB3486FD29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BDB009-BC32-4949-BAE7-289DF2473C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="1104" windowWidth="19632" windowHeight="10788" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conservation Zone" sheetId="2" r:id="rId1"/>
@@ -5482,8 +5482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF136B8-7CCD-4F9D-AD56-9842998E6064}">
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P92" sqref="P92:Q93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8508,7 +8508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65E2099-1C04-42F3-87BE-C2C1225ECFBB}">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:E32"/>
     </sheetView>
   </sheetViews>
